--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Tên KH</t>
   </si>
@@ -266,22 +266,19 @@
     <t>Tân Phú</t>
   </si>
   <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>hcm</t>
-  </si>
-  <si>
     <t>tân phú</t>
   </si>
   <si>
     <t>tân thành</t>
+  </si>
+  <si>
+    <t>TP Hồ Chi Minh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -660,7 +657,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +741,13 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -774,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Tên KH</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>Tỉnh/Thành</t>
-  </si>
-  <si>
     <t>Quận/Huyện</t>
   </si>
   <si>
@@ -266,16 +263,13 @@
     <t>Tân Phú</t>
   </si>
   <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>hcm</t>
-  </si>
-  <si>
-    <t>tân phú</t>
-  </si>
-  <si>
-    <t>tân thành</t>
+    <t>Tĩnh/Thành</t>
+  </si>
+  <si>
+    <t>Tân Thành</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -660,7 +654,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,16 +694,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -741,16 +735,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -771,16 +765,16 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
@@ -117,76 +117,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Ví dụ nếu chỉ có năm sinh thì nhập: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1992
-- </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nếu có tháng và năm thì nhập: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">8/1992
-- </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nếu ngày sinh đầy đủ thì nhập:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8/5/1992</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Tên KH</t>
   </si>
@@ -224,24 +160,15 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>1992</t>
-  </si>
-  <si>
     <t>Nguyễn Tuấn Anh</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>8/1990</t>
-  </si>
-  <si>
     <t>0369835014</t>
   </si>
   <si>
-    <t>Tiểu đường,Dị ứng thuốc</t>
-  </si>
-  <si>
     <t>Ngày tạo</t>
   </si>
   <si>
@@ -263,13 +190,19 @@
     <t>Tân Phú</t>
   </si>
   <si>
-    <t>Tĩnh/Thành</t>
-  </si>
-  <si>
     <t>Tân Thành</t>
   </si>
   <si>
     <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Tháng sinh</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Tỉnh/Thành</t>
   </si>
 </sst>
 </file>
@@ -338,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,6 +279,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,18 +598,20 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,43 +619,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -728,56 +671,65 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="7">
+        <v>1992</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>44012</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1995</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
@@ -76,21 +76,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hiển thị định dạng: Ngày/Tháng/Năm
-Nhưng nhập liệu nhập định dạng:
-Tháng/Ngày/Năm</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -209,9 +194,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,16 +253,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,18 +570,18 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="35.140625" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
@@ -618,19 +599,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -665,19 +646,19 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
-        <v>43991</v>
+      <c r="C2" s="7">
+        <v>33954</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>16</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>12</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>1992</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -701,19 +682,19 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
-        <v>44012</v>
+      <c r="C3" s="7">
+        <v>34460</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>1995</v>
       </c>
       <c r="H3" s="4" t="s">

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_KH_V2.xlsx
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -570,7 +571,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +662,7 @@
       <c r="G2" s="5">
         <v>1992</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -697,7 +698,7 @@
       <c r="G3" s="5">
         <v>1995</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
